--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3430.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3430.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.792962842501695</v>
+        <v>1.386567831039429</v>
       </c>
       <c r="B1">
-        <v>1.185659093275133</v>
+        <v>2.731710910797119</v>
       </c>
       <c r="C1">
-        <v>2.61563015947498</v>
+        <v>5.641032695770264</v>
       </c>
       <c r="D1">
-        <v>4.765243625758256</v>
+        <v>2.176080226898193</v>
       </c>
       <c r="E1">
-        <v>2.806699653052073</v>
+        <v>1.204565286636353</v>
       </c>
     </row>
   </sheetData>
